--- a/data/mockito.xlsx
+++ b/data/mockito.xlsx
@@ -498,25 +498,25 @@
         <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07272727272727272</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -542,22 +542,22 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G4" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="J4" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03125</v>
+        <v>0.025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -665,22 +665,22 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="G6" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -706,22 +706,22 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04395604395604396</v>
+        <v>0.05063291139240506</v>
       </c>
     </row>
     <row r="8">
@@ -747,22 +747,22 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03157894736842105</v>
+        <v>0.04</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1875</v>
+        <v>0.15</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.06315789473684211</v>
       </c>
     </row>
     <row r="9">
@@ -788,22 +788,22 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1240</v>
+        <v>1253</v>
       </c>
       <c r="G9" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03296703296703297</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1875</v>
+        <v>0.15</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05607476635514019</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="10">
@@ -829,22 +829,22 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1875</v>
+        <v>0.15</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="11">
@@ -867,25 +867,25 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0625</v>
+        <v>0.1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="12">
@@ -911,22 +911,22 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="13">
@@ -952,22 +952,22 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0625</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0625</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14">
@@ -993,22 +993,22 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="15">
@@ -1034,22 +1034,22 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="16">
@@ -1075,22 +1075,22 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="17">
@@ -1116,22 +1116,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
         <v>0.1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -1154,25 +1154,25 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07741935483870968</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1403508771929824</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="19">
@@ -1195,25 +1195,25 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04391891891891892</v>
+        <v>0.05573770491803279</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1046153846153846</v>
       </c>
     </row>
     <row r="20">
@@ -1236,25 +1236,25 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G20" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03132530120481928</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06032482598607888</v>
+        <v>0.0776255707762557</v>
       </c>
     </row>
     <row r="21">
@@ -1277,25 +1277,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G21" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02155887230514096</v>
+        <v>0.02828618968386023</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0420032310177706</v>
+        <v>0.05475040257648953</v>
       </c>
     </row>
     <row r="22">
@@ -1318,25 +1318,25 @@
         <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G22" t="n">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01660280970625798</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03254067584480601</v>
+        <v>0.04244694132334582</v>
       </c>
     </row>
     <row r="23">
@@ -1359,25 +1359,25 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G23" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0145413870246085</v>
+        <v>0.01899441340782123</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03715846994535519</v>
       </c>
     </row>
     <row r="24">
@@ -1400,25 +1400,25 @@
         <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G24" t="n">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01285855588526212</v>
+        <v>0.01684836471754212</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.03304178814382896</v>
       </c>
     </row>
     <row r="25">
@@ -1441,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G25" t="n">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01090604026845638</v>
+        <v>0.01437024513947591</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02152317880794702</v>
+        <v>0.02826267664172901</v>
       </c>
     </row>
     <row r="26">
@@ -1482,25 +1482,25 @@
         <v>0.3</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07453416149068323</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="J26" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1658031088082902</v>
       </c>
     </row>
     <row r="27">
@@ -1523,25 +1523,25 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04377104377104377</v>
+        <v>0.05351170568561873</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08306709265175719</v>
+        <v>0.1003134796238244</v>
       </c>
     </row>
     <row r="28">
@@ -1564,25 +1564,25 @@
         <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03095238095238095</v>
+        <v>0.03855421686746988</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05963302752293578</v>
+        <v>0.0735632183908046</v>
       </c>
     </row>
     <row r="29">
@@ -1605,25 +1605,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G29" t="n">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02338129496402878</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.05594405594405594</v>
       </c>
     </row>
     <row r="30">
@@ -1646,25 +1646,25 @@
         <v>1.3</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G30" t="n">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01741654571843251</v>
+        <v>0.0237037037037037</v>
       </c>
       <c r="J30" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03404255319148936</v>
+        <v>0.0460431654676259</v>
       </c>
     </row>
     <row r="31">
@@ -1687,25 +1687,25 @@
         <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G31" t="n">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01630434782608696</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="J31" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03191489361702127</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="32">
@@ -1728,25 +1728,25 @@
         <v>1.7</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G32" t="n">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01509433962264151</v>
+        <v>0.02007528230865746</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02959309494451295</v>
+        <v>0.03916768665850673</v>
       </c>
     </row>
     <row r="33">
@@ -1769,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G33" t="n">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01440576230492197</v>
+        <v>0.01897983392645314</v>
       </c>
       <c r="J33" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02826855123674912</v>
+        <v>0.03707995365005794</v>
       </c>
     </row>
     <row r="34">
@@ -1810,25 +1810,25 @@
         <v>0.3</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G34" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07352941176470588</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="K34" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1797752808988764</v>
       </c>
     </row>
     <row r="35">
@@ -1851,25 +1851,25 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G35" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="J35" t="n">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1320754716981132</v>
       </c>
     </row>
     <row r="36">
@@ -1892,25 +1892,25 @@
         <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G36" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03738317757009346</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="J36" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06504065040650407</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="37">
@@ -1933,25 +1933,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G37" t="n">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="38">
@@ -1974,25 +1974,25 @@
         <v>1.3</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G38" t="n">
         <v>125</v>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0234375</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.05369127516778523</v>
       </c>
     </row>
     <row r="39">
@@ -2015,25 +2015,25 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="G39" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01449275362318841</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="J39" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.06578947368421052</v>
       </c>
     </row>
     <row r="40">
@@ -2056,25 +2056,25 @@
         <v>1.7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="G40" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01212121212121212</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02209944751381215</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="41">
@@ -2097,25 +2097,25 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="G41" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0189873417721519</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.05649717514124294</v>
       </c>
     </row>
     <row r="42">
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2466,25 +2466,25 @@
         <v>0.3</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51">
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -2548,25 +2548,25 @@
         <v>0.7</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2630,25 +2630,25 @@
         <v>1.3</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>8</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3002,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0.3</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G66" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H66" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03738317757009346</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="J66" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K66" t="n">
-        <v>0.06504065040650407</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="67">
@@ -3163,25 +3163,25 @@
         <v>0.5</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G67" t="n">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H67" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="J67" t="n">
         <v>0.25</v>
       </c>
       <c r="K67" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="68">
@@ -3204,25 +3204,25 @@
         <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G68" t="n">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="K68" t="n">
-        <v>0.02459016393442623</v>
+        <v>0.04424778761061947</v>
       </c>
     </row>
     <row r="69">
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G69" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01167315175097276</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="K69" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.03484320557491289</v>
       </c>
     </row>
     <row r="70">
@@ -3286,25 +3286,25 @@
         <v>1.3</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="G70" t="n">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="H70" t="n">
         <v>14</v>
       </c>
       <c r="I70" t="n">
-        <v>0.006349206349206349</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="J70" t="n">
-        <v>0.125</v>
+        <v>0.3</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01208459214501511</v>
+        <v>0.03183023872679045</v>
       </c>
     </row>
     <row r="71">
@@ -3327,25 +3327,25 @@
         <v>1.5</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="G71" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" t="n">
-        <v>0.002747252747252747</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0625</v>
+        <v>0.35</v>
       </c>
       <c r="K71" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.03414634146341464</v>
       </c>
     </row>
     <row r="72">
@@ -3368,25 +3368,25 @@
         <v>1.7</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="G72" t="n">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="H72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>0.00228310502283105</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0625</v>
+        <v>0.3</v>
       </c>
       <c r="K72" t="n">
-        <v>0.004405286343612335</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="73">
@@ -3409,25 +3409,25 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="G73" t="n">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="H73" t="n">
         <v>15</v>
       </c>
       <c r="I73" t="n">
-        <v>0.002364066193853428</v>
+        <v>0.01103752759381899</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
       <c r="K73" t="n">
-        <v>0.004555808656036446</v>
+        <v>0.02114164904862579</v>
       </c>
     </row>
     <row r="74">
@@ -3453,22 +3453,22 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="75">
@@ -3494,22 +3494,22 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="76">
@@ -3535,22 +3535,22 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="77">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
